--- a/Solution/script/cost_api.xlsx
+++ b/Solution/script/cost_api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenClassroom_projet\Projet_7\Solution\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7555884-E8E6-4F86-AC63-EFBD500B68E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D73FC2-188C-48C8-8672-CD919EEB732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2263,7 +2263,7 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2443,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEA92FB-E312-499C-8F08-CA05EB7B1B74}">
   <dimension ref="C2:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
